--- a/locations.xlsx
+++ b/locations.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhmeymUYPt8jm66I9y31hDOC9tSGg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mju2RQpz/BwT0aX0vhileFrV2MgLQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="665">
   <si>
     <t>Name</t>
   </si>
@@ -84,7 +84,7 @@
     <t>Ahrens</t>
   </si>
   <si>
-    <t>KwaZulu-Natal</t>
+    <t>KwaZulu Natal</t>
   </si>
   <si>
     <t>Akasia</t>
@@ -2008,13 +2008,16 @@
   </si>
   <si>
     <t>Zwelitsha</t>
+  </si>
+  <si>
+    <t>KZN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2027,15 +2030,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -2043,8 +2040,9 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
+      <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -2066,24 +2064,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2314,7 +2309,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2340,111 +2335,111 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2452,47 +2447,47 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2500,95 +2495,95 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2596,23 +2591,23 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2620,31 +2615,31 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2652,95 +2647,95 @@
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -2748,47 +2743,47 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -2796,7 +2791,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2804,7 +2799,7 @@
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2812,23 +2807,23 @@
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2836,127 +2831,127 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -2964,151 +2959,151 @@
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -3116,23 +3111,23 @@
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -3140,95 +3135,95 @@
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="3" t="s">
+      <c r="A108" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="3" t="s">
+      <c r="A111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -3236,119 +3231,119 @@
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="3" t="s">
+      <c r="A120" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="3" t="s">
+      <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="3" t="s">
+      <c r="A128" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -3356,119 +3351,119 @@
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="3" t="s">
+      <c r="A129" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="3" t="s">
+      <c r="A141" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="2" t="s">
         <v>151</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -3476,63 +3471,63 @@
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="3" t="s">
+      <c r="A149" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -3540,31 +3535,31 @@
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="3" t="s">
+      <c r="A153" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -3572,15 +3567,15 @@
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -3588,39 +3583,39 @@
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -3628,55 +3623,55 @@
       </c>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="3" t="s">
+      <c r="A164" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="3" t="s">
+      <c r="A166" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -3684,23 +3679,23 @@
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -3708,7 +3703,7 @@
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -3716,47 +3711,47 @@
       </c>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="3" t="s">
+      <c r="A174" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -3764,55 +3759,55 @@
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="3" t="s">
+      <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="3" t="s">
+      <c r="A184" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -3820,47 +3815,47 @@
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="3" t="s">
+      <c r="A188" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B188" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="3" t="s">
+      <c r="A189" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="3" t="s">
+      <c r="A190" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="3" t="s">
+      <c r="A191" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -3868,111 +3863,111 @@
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="3" t="s">
+      <c r="A196" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="3" t="s">
+      <c r="A199" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="3" t="s">
+      <c r="A200" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -3980,87 +3975,87 @@
       </c>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="3" t="s">
+      <c r="A208" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="3" t="s">
+      <c r="A210" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="3" t="s">
+      <c r="A213" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -4068,15 +4063,15 @@
       </c>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="3" t="s">
+      <c r="A218" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -4084,15 +4079,15 @@
       </c>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="3" t="s">
+      <c r="A220" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -4100,143 +4095,143 @@
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="3" t="s">
+      <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="3" t="s">
+      <c r="A226" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="3" t="s">
+      <c r="A229" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="3" t="s">
+      <c r="A230" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B231" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="3" t="s">
+      <c r="A233" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="3" t="s">
+      <c r="A234" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B236" s="3" t="s">
+      <c r="B236" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -4244,31 +4239,31 @@
       </c>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="3" t="s">
+      <c r="A241" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="3" t="s">
+      <c r="A243" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -4276,31 +4271,31 @@
       </c>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="3" t="s">
+      <c r="A244" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="3" t="s">
+      <c r="A246" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B247" s="3" t="s">
@@ -4308,7 +4303,7 @@
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B248" s="3" t="s">
@@ -4316,96 +4311,96 @@
       </c>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="4" t="s">
+      <c r="A249" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="250" ht="15.75" customHeight="1"/>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="3" t="s">
+      <c r="A252" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="3" t="s">
+      <c r="A254" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="4" t="s">
+      <c r="A256" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="3" t="s">
+      <c r="A258" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="4" t="s">
+      <c r="A260" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B261" s="3" t="s">
@@ -4413,15 +4408,15 @@
       </c>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="3" t="s">
+      <c r="A263" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -4429,31 +4424,31 @@
       </c>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="3" t="s">
+      <c r="A264" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="3" t="s">
+      <c r="A267" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -4461,15 +4456,15 @@
       </c>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="3" t="s">
+      <c r="A269" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B269" s="3" t="s">
@@ -4477,7 +4472,7 @@
       </c>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B270" s="3" t="s">
@@ -4485,87 +4480,87 @@
       </c>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B271" s="3" t="s">
+      <c r="B271" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="3" t="s">
+      <c r="A272" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B272" s="3" t="s">
+      <c r="B272" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B273" s="3" t="s">
+      <c r="B273" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="3" t="s">
+      <c r="A277" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="3" t="s">
+      <c r="A278" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B281" s="3" t="s">
@@ -4573,103 +4568,103 @@
       </c>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B283" s="3" t="s">
+      <c r="B283" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B284" s="3" t="s">
+      <c r="B284" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B285" s="3" t="s">
+      <c r="B285" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B286" s="3" t="s">
+      <c r="B286" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B287" s="3" t="s">
+      <c r="B287" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B288" s="3" t="s">
+      <c r="B288" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="4" t="s">
+      <c r="A289" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B289" s="3" t="s">
+      <c r="B289" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="3" t="s">
+      <c r="A290" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B290" s="3" t="s">
+      <c r="B290" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B291" s="3" t="s">
+      <c r="B291" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B292" s="3" t="s">
+      <c r="B292" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B293" s="3" t="s">
+      <c r="B293" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B294" s="3" t="s">
@@ -4677,87 +4672,87 @@
       </c>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B295" s="3" t="s">
+      <c r="B295" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="3" t="s">
+      <c r="A296" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B296" s="3" t="s">
+      <c r="B296" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B297" s="3" t="s">
+      <c r="B297" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="3" t="s">
+      <c r="A298" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="3" t="s">
+      <c r="A299" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B299" s="3" t="s">
+      <c r="B299" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="3" t="s">
+      <c r="A300" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B300" s="3" t="s">
+      <c r="B300" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="3" t="s">
+      <c r="A301" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B301" s="3" t="s">
+      <c r="B301" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B302" s="3" t="s">
+      <c r="B302" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="3" t="s">
+      <c r="A303" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B303" s="3" t="s">
+      <c r="B303" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B304" s="3" t="s">
+      <c r="B304" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="2" t="s">
         <v>311</v>
       </c>
       <c r="B305" s="3" t="s">
@@ -4765,87 +4760,87 @@
       </c>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="3" t="s">
+      <c r="A306" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B306" s="3" t="s">
+      <c r="B306" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="4" t="s">
+      <c r="A307" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B307" s="3" t="s">
+      <c r="B307" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="3" t="s">
+      <c r="A308" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B308" s="3" t="s">
+      <c r="B308" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B309" s="3" t="s">
+      <c r="B309" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="3" t="s">
+      <c r="A310" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B310" s="3" t="s">
+      <c r="B310" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B311" s="3" t="s">
+      <c r="B311" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="3" t="s">
+      <c r="A312" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B312" s="3" t="s">
+      <c r="B312" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="B313" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="3" t="s">
+      <c r="A314" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B314" s="3" t="s">
+      <c r="B314" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="3" t="s">
+      <c r="A315" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B315" s="3" t="s">
+      <c r="B315" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="3" t="s">
+      <c r="A316" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B316" s="3" t="s">
@@ -4853,79 +4848,79 @@
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B317" s="3" t="s">
+      <c r="B317" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B318" s="3" t="s">
+      <c r="B318" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="3" t="s">
+      <c r="A319" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B319" s="3" t="s">
+      <c r="B319" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="B320" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="3" t="s">
+      <c r="A321" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B321" s="3" t="s">
+      <c r="B321" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="3" t="s">
+      <c r="A322" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B322" s="3" t="s">
+      <c r="B322" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B323" s="3" t="s">
+      <c r="B323" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="3" t="s">
+      <c r="A324" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B324" s="3" t="s">
+      <c r="B324" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B325" s="3" t="s">
+      <c r="B325" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="3" t="s">
+      <c r="A326" s="2" t="s">
         <v>332</v>
       </c>
       <c r="B326" s="3" t="s">
@@ -4933,7 +4928,7 @@
       </c>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="2" t="s">
         <v>333</v>
       </c>
       <c r="B327" s="3" t="s">
@@ -4941,7 +4936,7 @@
       </c>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B328" s="3" t="s">
@@ -4949,7 +4944,7 @@
       </c>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B329" s="3" t="s">
@@ -4957,7 +4952,7 @@
       </c>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="3" t="s">
+      <c r="A330" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B330" s="3" t="s">
@@ -4965,55 +4960,55 @@
       </c>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="3" t="s">
+      <c r="A333" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="3" t="s">
+      <c r="A334" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="3" t="s">
+      <c r="A337" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B337" s="3" t="s">
@@ -5021,15 +5016,15 @@
       </c>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="3" t="s">
+      <c r="A338" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -5037,7 +5032,7 @@
       </c>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="3" t="s">
+      <c r="A340" s="2" t="s">
         <v>346</v>
       </c>
       <c r="B340" s="3" t="s">
@@ -5045,7 +5040,7 @@
       </c>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B341" s="3" t="s">
@@ -5053,7 +5048,7 @@
       </c>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="2" t="s">
         <v>348</v>
       </c>
       <c r="B342" s="3" t="s">
@@ -5061,7 +5056,7 @@
       </c>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="3" t="s">
+      <c r="A343" s="2" t="s">
         <v>349</v>
       </c>
       <c r="B343" s="3" t="s">
@@ -5069,23 +5064,23 @@
       </c>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="3" t="s">
+      <c r="A345" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B346" s="3" t="s">
@@ -5093,7 +5088,7 @@
       </c>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="2" t="s">
         <v>353</v>
       </c>
       <c r="B347" s="3" t="s">
@@ -5101,63 +5096,63 @@
       </c>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="3" t="s">
+      <c r="A349" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="3" t="s">
+      <c r="A350" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="3" t="s">
+      <c r="A354" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="2" t="s">
         <v>361</v>
       </c>
       <c r="B355" s="3" t="s">
@@ -5165,71 +5160,71 @@
       </c>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="3" t="s">
+      <c r="A356" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="3" t="s">
+      <c r="A357" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="3" t="s">
+      <c r="A358" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="3" t="s">
+      <c r="A360" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="B360" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="3" t="s">
+      <c r="A361" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="B361" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="B362" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="3" t="s">
+      <c r="A363" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="B363" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="2" t="s">
         <v>370</v>
       </c>
       <c r="B364" s="3" t="s">
@@ -5237,39 +5232,39 @@
       </c>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="B365" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="3" t="s">
+      <c r="A366" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B366" s="3" t="s">
+      <c r="B366" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="3" t="s">
+      <c r="A367" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B367" s="3" t="s">
+      <c r="B367" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B368" s="3" t="s">
+      <c r="B368" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="3" t="s">
+      <c r="A369" s="2" t="s">
         <v>375</v>
       </c>
       <c r="B369" s="3" t="s">
@@ -5277,23 +5272,23 @@
       </c>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="3" t="s">
+      <c r="A370" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="3" t="s">
+      <c r="A372" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B372" s="3" t="s">
@@ -5301,63 +5296,63 @@
       </c>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="3" t="s">
+      <c r="A374" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="B374" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="B375" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="3" t="s">
+      <c r="A376" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="B376" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="B377" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="3" t="s">
+      <c r="A378" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="B378" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="4" t="s">
+      <c r="A379" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B379" s="3" t="s">
+      <c r="B379" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="3" t="s">
+      <c r="A380" s="2" t="s">
         <v>386</v>
       </c>
       <c r="B380" s="3" t="s">
@@ -5365,7 +5360,7 @@
       </c>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="4" t="s">
+      <c r="A381" s="2" t="s">
         <v>387</v>
       </c>
       <c r="B381" s="3" t="s">
@@ -5373,7 +5368,7 @@
       </c>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="3" t="s">
+      <c r="A382" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B382" s="3" t="s">
@@ -5381,47 +5376,47 @@
       </c>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="3" t="s">
+      <c r="A384" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="B384" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="B385" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="B386" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="3" t="s">
+      <c r="A387" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B387" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="3" t="s">
+      <c r="A388" s="2" t="s">
         <v>394</v>
       </c>
       <c r="B388" s="3" t="s">
@@ -5429,7 +5424,7 @@
       </c>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="4" t="s">
+      <c r="A389" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B389" s="3" t="s">
@@ -5437,15 +5432,15 @@
       </c>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="3" t="s">
+      <c r="A390" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B390" s="3" t="s">
+      <c r="B390" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="2" t="s">
         <v>397</v>
       </c>
       <c r="B391" s="3" t="s">
@@ -5453,7 +5448,7 @@
       </c>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="3" t="s">
+      <c r="A392" s="2" t="s">
         <v>398</v>
       </c>
       <c r="B392" s="3" t="s">
@@ -5461,95 +5456,95 @@
       </c>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="3" t="s">
+      <c r="A393" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B393" s="3" t="s">
+      <c r="B393" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="4" t="s">
+      <c r="A394" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B394" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="3" t="s">
+      <c r="A396" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="B396" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="4" t="s">
+      <c r="A397" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="B397" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="3" t="s">
+      <c r="A400" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="B400" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="B401" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="3" t="s">
+      <c r="A402" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="B402" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="4" t="s">
+      <c r="A403" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B403" s="4" t="s">
+      <c r="B403" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="3" t="s">
+      <c r="A404" s="2" t="s">
         <v>410</v>
       </c>
       <c r="B404" s="3" t="s">
@@ -5557,63 +5552,63 @@
       </c>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="4" t="s">
+      <c r="A405" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B405" s="4" t="s">
+      <c r="B405" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="3" t="s">
+      <c r="A406" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="B406" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="B407" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="3" t="s">
+      <c r="A408" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="3" t="s">
+      <c r="A409" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B409" s="3" t="s">
+      <c r="B409" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B410" s="3" t="s">
+      <c r="B410" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="3" t="s">
+      <c r="A411" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B411" s="3" t="s">
+      <c r="B411" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="3" t="s">
+      <c r="A412" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B412" s="3" t="s">
@@ -5621,15 +5616,15 @@
       </c>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="3" t="s">
+      <c r="A413" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B413" s="3" t="s">
+      <c r="B413" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="2" t="s">
         <v>420</v>
       </c>
       <c r="B414" s="3" t="s">
@@ -5637,55 +5632,55 @@
       </c>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B415" s="3" t="s">
+      <c r="B415" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="4" t="s">
+      <c r="A416" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="3" t="s">
+      <c r="A417" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="3" t="s">
+      <c r="A418" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="3" t="s">
+      <c r="A419" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="3" t="s">
+      <c r="A421" s="2" t="s">
         <v>427</v>
       </c>
       <c r="B421" s="3" t="s">
@@ -5693,47 +5688,47 @@
       </c>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="3" t="s">
+      <c r="A423" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="3" t="s">
+      <c r="A424" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B425" s="3" t="s">
+      <c r="B425" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="4" t="s">
+      <c r="A426" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B426" s="4" t="s">
+      <c r="B426" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="3" t="s">
+      <c r="A427" s="2" t="s">
         <v>433</v>
       </c>
       <c r="B427" s="3" t="s">
@@ -5741,15 +5736,15 @@
       </c>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="3" t="s">
+      <c r="A428" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="B428" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B429" s="3" t="s">
@@ -5757,39 +5752,39 @@
       </c>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="3" t="s">
+      <c r="A430" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="B430" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="3" t="s">
+      <c r="A431" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="B431" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="3" t="s">
+      <c r="A432" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="B432" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="3" t="s">
+      <c r="A433" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="B433" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="2" t="s">
         <v>439</v>
       </c>
       <c r="B434" s="3" t="s">
@@ -5797,71 +5792,71 @@
       </c>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="B435" s="2" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="3" t="s">
+      <c r="A436" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="B436" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="3" t="s">
+      <c r="A437" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="B437" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="4" t="s">
+      <c r="A439" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="B439" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="3" t="s">
+      <c r="A440" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="B440" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="4" t="s">
+      <c r="A441" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B441" s="4" t="s">
+      <c r="B441" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="3" t="s">
+      <c r="A442" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="B442" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="2" t="s">
         <v>448</v>
       </c>
       <c r="B443" s="3" t="s">
@@ -5869,15 +5864,15 @@
       </c>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="3" t="s">
+      <c r="A444" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B444" s="3" t="s">
+      <c r="B444" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="3" t="s">
+      <c r="A445" s="2" t="s">
         <v>450</v>
       </c>
       <c r="B445" s="3" t="s">
@@ -5885,31 +5880,31 @@
       </c>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="3" t="s">
+      <c r="A446" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B446" s="3" t="s">
+      <c r="B446" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="3" t="s">
+      <c r="A447" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B447" s="3" t="s">
+      <c r="B447" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="3" t="s">
+      <c r="A448" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="B448" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="3" t="s">
+      <c r="A449" s="2" t="s">
         <v>454</v>
       </c>
       <c r="B449" s="3" t="s">
@@ -5917,7 +5912,7 @@
       </c>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="4" t="s">
+      <c r="A450" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B450" s="3" t="s">
@@ -5925,7 +5920,7 @@
       </c>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="3" t="s">
+      <c r="A451" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B451" s="3" t="s">
@@ -5933,7 +5928,7 @@
       </c>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="3" t="s">
+      <c r="A452" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B452" s="3" t="s">
@@ -5941,47 +5936,47 @@
       </c>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="3" t="s">
+      <c r="A453" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="B453" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="3" t="s">
+      <c r="A454" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="B454" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="4" t="s">
+      <c r="A455" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B455" s="4" t="s">
+      <c r="B455" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="3" t="s">
+      <c r="A456" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B456" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="6" t="s">
+      <c r="A457" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B457" s="4" t="s">
+      <c r="B457" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="3" t="s">
+      <c r="A458" s="2" t="s">
         <v>463</v>
       </c>
       <c r="B458" s="3" t="s">
@@ -5989,7 +5984,7 @@
       </c>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="3" t="s">
+      <c r="A459" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B459" s="3" t="s">
@@ -5997,7 +5992,7 @@
       </c>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="3" t="s">
+      <c r="A460" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B460" s="3" t="s">
@@ -6005,31 +6000,31 @@
       </c>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="3" t="s">
+      <c r="A461" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B461" s="3" t="s">
+      <c r="B461" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="3" t="s">
+      <c r="A462" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B462" s="3" t="s">
+      <c r="B462" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="3" t="s">
+      <c r="A463" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B463" s="3" t="s">
+      <c r="B463" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="3" t="s">
+      <c r="A464" s="2" t="s">
         <v>469</v>
       </c>
       <c r="B464" s="3" t="s">
@@ -6037,7 +6032,7 @@
       </c>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="3" t="s">
+      <c r="A465" s="2" t="s">
         <v>470</v>
       </c>
       <c r="B465" s="3" t="s">
@@ -6045,87 +6040,87 @@
       </c>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="3" t="s">
+      <c r="A466" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="B466" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="3" t="s">
+      <c r="A467" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="B467" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="3" t="s">
+      <c r="A468" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B468" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="3" t="s">
+      <c r="A469" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B469" s="3" t="s">
+      <c r="B469" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="3" t="s">
+      <c r="A470" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B470" s="3" t="s">
+      <c r="B470" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="3" t="s">
+      <c r="A471" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="B471" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="3" t="s">
+      <c r="A472" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="B472" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="3" t="s">
+      <c r="A473" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B473" s="3" t="s">
+      <c r="B473" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="3" t="s">
+      <c r="A474" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B474" s="3" t="s">
+      <c r="B474" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="3" t="s">
+      <c r="A475" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B475" s="3" t="s">
+      <c r="B475" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="3" t="s">
+      <c r="A476" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B476" s="3" t="s">
@@ -6133,7 +6128,7 @@
       </c>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="3" t="s">
+      <c r="A477" s="2" t="s">
         <v>482</v>
       </c>
       <c r="B477" s="3" t="s">
@@ -6141,31 +6136,31 @@
       </c>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="3" t="s">
+      <c r="A478" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B478" s="3" t="s">
+      <c r="B478" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="3" t="s">
+      <c r="A479" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B479" s="3" t="s">
+      <c r="B479" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="3" t="s">
+      <c r="A480" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B480" s="3" t="s">
+      <c r="B480" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="3" t="s">
+      <c r="A481" s="2" t="s">
         <v>486</v>
       </c>
       <c r="B481" s="3" t="s">
@@ -6173,15 +6168,15 @@
       </c>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="3" t="s">
+      <c r="A482" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B482" s="3" t="s">
+      <c r="B482" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="3" t="s">
+      <c r="A483" s="2" t="s">
         <v>488</v>
       </c>
       <c r="B483" s="3" t="s">
@@ -6189,71 +6184,71 @@
       </c>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="3" t="s">
+      <c r="A484" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B484" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="3" t="s">
+      <c r="A485" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B485" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="3" t="s">
+      <c r="A486" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="B486" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="3" t="s">
+      <c r="A487" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="B487" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="3" t="s">
+      <c r="A488" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="B488" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="3" t="s">
+      <c r="A489" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="B489" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="4" t="s">
+      <c r="A490" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B490" s="4" t="s">
+      <c r="B490" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="3" t="s">
+      <c r="A491" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B491" s="3" t="s">
+      <c r="B491" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="3" t="s">
+      <c r="A492" s="2" t="s">
         <v>497</v>
       </c>
       <c r="B492" s="3" t="s">
@@ -6261,39 +6256,39 @@
       </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="7" t="s">
+      <c r="A493" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B493" s="4" t="s">
+      <c r="B493" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="4" t="s">
+      <c r="A494" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B494" s="4" t="s">
+      <c r="B494" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="3" t="s">
+      <c r="A495" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B495" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="3" t="s">
+      <c r="A496" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="3" t="s">
+      <c r="A497" s="2" t="s">
         <v>502</v>
       </c>
       <c r="B497" s="3" t="s">
@@ -6301,39 +6296,39 @@
       </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="3" t="s">
+      <c r="A498" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B498" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="3" t="s">
+      <c r="A499" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B499" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="3" t="s">
+      <c r="A500" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B500" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="7" t="s">
+      <c r="A501" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B501" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="3" t="s">
+      <c r="A502" s="2" t="s">
         <v>507</v>
       </c>
       <c r="B502" s="3" t="s">
@@ -6341,7 +6336,7 @@
       </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="3" t="s">
+      <c r="A503" s="2" t="s">
         <v>508</v>
       </c>
       <c r="B503" s="3" t="s">
@@ -6349,15 +6344,15 @@
       </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="3" t="s">
+      <c r="A504" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B504" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="3" t="s">
+      <c r="A505" s="2" t="s">
         <v>510</v>
       </c>
       <c r="B505" s="3" t="s">
@@ -6365,15 +6360,15 @@
       </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="3" t="s">
+      <c r="A506" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B506" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="3" t="s">
+      <c r="A507" s="2" t="s">
         <v>512</v>
       </c>
       <c r="B507" s="3" t="s">
@@ -6381,55 +6376,55 @@
       </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="3" t="s">
+      <c r="A508" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B508" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="3" t="s">
+      <c r="A509" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B509" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="3" t="s">
+      <c r="A510" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B510" s="3" t="s">
+      <c r="B510" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="7" t="s">
+      <c r="A511" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B511" s="3" t="s">
+      <c r="B511" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="3" t="s">
+      <c r="A512" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="B512" s="3" t="s">
+      <c r="B512" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="3" t="s">
+      <c r="A513" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B513" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="3" t="s">
+      <c r="A514" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B514" s="3" t="s">
@@ -6437,23 +6432,23 @@
       </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="3" t="s">
+      <c r="A515" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B515" s="3" t="s">
+      <c r="B515" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="4" t="s">
+      <c r="A516" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B516" s="4" t="s">
+      <c r="B516" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="3" t="s">
+      <c r="A517" s="2" t="s">
         <v>522</v>
       </c>
       <c r="B517" s="3" t="s">
@@ -6461,47 +6456,47 @@
       </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="3" t="s">
+      <c r="A518" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B518" s="3" t="s">
+      <c r="B518" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="3" t="s">
+      <c r="A519" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B519" s="3" t="s">
+      <c r="B519" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="3" t="s">
+      <c r="A520" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B520" s="3" t="s">
+      <c r="B520" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="3" t="s">
+      <c r="A521" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B521" s="3" t="s">
+      <c r="B521" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="3" t="s">
+      <c r="A522" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="B522" s="3" t="s">
+      <c r="B522" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="3" t="s">
+      <c r="A523" s="2" t="s">
         <v>528</v>
       </c>
       <c r="B523" s="3" t="s">
@@ -6509,87 +6504,87 @@
       </c>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="3" t="s">
+      <c r="A524" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B524" s="3" t="s">
+      <c r="B524" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="3" t="s">
+      <c r="A525" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B525" s="3" t="s">
+      <c r="B525" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="3" t="s">
+      <c r="A526" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B526" s="3" t="s">
+      <c r="B526" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="3" t="s">
+      <c r="A527" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B527" s="3" t="s">
+      <c r="B527" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="3" t="s">
+      <c r="A528" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B528" s="3" t="s">
+      <c r="B528" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="3" t="s">
+      <c r="A529" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B529" s="3" t="s">
+      <c r="B529" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="3" t="s">
+      <c r="A530" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B530" s="3" t="s">
+      <c r="B530" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="3" t="s">
+      <c r="A531" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B531" s="3" t="s">
+      <c r="B531" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="4" t="s">
+      <c r="A532" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B532" s="4" t="s">
+      <c r="B532" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="3" t="s">
+      <c r="A533" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B533" s="3" t="s">
+      <c r="B533" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="3" t="s">
+      <c r="A534" s="2" t="s">
         <v>539</v>
       </c>
       <c r="B534" s="3" t="s">
@@ -6597,39 +6592,39 @@
       </c>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="3" t="s">
+      <c r="A535" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B535" s="3" t="s">
+      <c r="B535" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="3" t="s">
+      <c r="A536" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B536" s="3" t="s">
+      <c r="B536" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="3" t="s">
+      <c r="A537" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B537" s="3" t="s">
+      <c r="B537" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="3" t="s">
+      <c r="A538" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B538" s="3" t="s">
+      <c r="B538" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="3" t="s">
+      <c r="A539" s="2" t="s">
         <v>544</v>
       </c>
       <c r="B539" s="3" t="s">
@@ -6637,31 +6632,31 @@
       </c>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="3" t="s">
+      <c r="A540" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="B540" s="3" t="s">
+      <c r="B540" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="3" t="s">
+      <c r="A541" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B541" s="3" t="s">
+      <c r="B541" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="3" t="s">
+      <c r="A542" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B542" s="3" t="s">
+      <c r="B542" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="3" t="s">
+      <c r="A543" s="2" t="s">
         <v>548</v>
       </c>
       <c r="B543" s="3" t="s">
@@ -6669,23 +6664,23 @@
       </c>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="3" t="s">
+      <c r="A544" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="B544" s="3" t="s">
+      <c r="B544" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="3" t="s">
+      <c r="A545" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B545" s="3" t="s">
+      <c r="B545" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="3" t="s">
+      <c r="A546" s="2" t="s">
         <v>551</v>
       </c>
       <c r="B546" s="3" t="s">
@@ -6693,39 +6688,39 @@
       </c>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="3" t="s">
+      <c r="A547" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B547" s="3" t="s">
+      <c r="B547" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="3" t="s">
+      <c r="A548" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B548" s="3" t="s">
+      <c r="B548" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="3" t="s">
+      <c r="A549" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B549" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="3" t="s">
+      <c r="A550" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B550" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="3" t="s">
+      <c r="A551" s="2" t="s">
         <v>556</v>
       </c>
       <c r="B551" s="3" t="s">
@@ -6733,87 +6728,87 @@
       </c>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="3" t="s">
+      <c r="A552" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B552" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="3" t="s">
+      <c r="A553" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B553" s="3" t="s">
+      <c r="B553" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="3" t="s">
+      <c r="A554" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B554" s="3" t="s">
+      <c r="B554" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="3" t="s">
+      <c r="A555" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B555" s="3" t="s">
+      <c r="B555" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="3" t="s">
+      <c r="A556" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="B556" s="3" t="s">
+      <c r="B556" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="3" t="s">
+      <c r="A557" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B557" s="3" t="s">
+      <c r="B557" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="3" t="s">
+      <c r="A558" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B558" s="3" t="s">
+      <c r="B558" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="3" t="s">
+      <c r="A559" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B559" s="3" t="s">
+      <c r="B559" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="3" t="s">
+      <c r="A560" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B560" s="3" t="s">
+      <c r="B560" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="3" t="s">
+      <c r="A561" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B561" s="3" t="s">
+      <c r="B561" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="3" t="s">
+      <c r="A562" s="2" t="s">
         <v>567</v>
       </c>
       <c r="B562" s="3" t="s">
@@ -6821,7 +6816,7 @@
       </c>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="3" t="s">
+      <c r="A563" s="2" t="s">
         <v>568</v>
       </c>
       <c r="B563" s="3" t="s">
@@ -6829,111 +6824,111 @@
       </c>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="3" t="s">
+      <c r="A564" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B564" s="3" t="s">
+      <c r="B564" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="3" t="s">
+      <c r="A565" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B565" s="3" t="s">
+      <c r="B565" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="3" t="s">
+      <c r="A566" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B566" s="3" t="s">
+      <c r="B566" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="3" t="s">
+      <c r="A567" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="B567" s="3" t="s">
+      <c r="B567" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="3" t="s">
+      <c r="A568" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B568" s="3" t="s">
+      <c r="B568" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="3" t="s">
+      <c r="A569" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B569" s="3" t="s">
+      <c r="B569" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="3" t="s">
+      <c r="A570" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B570" s="3" t="s">
+      <c r="B570" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="3" t="s">
+      <c r="A571" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B571" s="3" t="s">
+      <c r="B571" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="3" t="s">
+      <c r="A572" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B572" s="3" t="s">
+      <c r="B572" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="3" t="s">
+      <c r="A573" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B573" s="3" t="s">
+      <c r="B573" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="3" t="s">
+      <c r="A574" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B574" s="3" t="s">
+      <c r="B574" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="3" t="s">
+      <c r="A575" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="B575" s="3" t="s">
+      <c r="B575" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="3" t="s">
+      <c r="A576" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B576" s="3" t="s">
+      <c r="B576" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="3" t="s">
+      <c r="A577" s="2" t="s">
         <v>582</v>
       </c>
       <c r="B577" s="3" t="s">
@@ -6941,31 +6936,31 @@
       </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="3" t="s">
+      <c r="A578" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B578" s="3" t="s">
+      <c r="B578" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="3" t="s">
+      <c r="A579" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="B579" s="3" t="s">
+      <c r="B579" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="3" t="s">
+      <c r="A580" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B580" s="3" t="s">
+      <c r="B580" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="3" t="s">
+      <c r="A581" s="2" t="s">
         <v>586</v>
       </c>
       <c r="B581" s="3" t="s">
@@ -6973,31 +6968,31 @@
       </c>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="3" t="s">
+      <c r="A582" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B582" s="3" t="s">
+      <c r="B582" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="3" t="s">
+      <c r="A583" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B583" s="3" t="s">
+      <c r="B583" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="3" t="s">
+      <c r="A584" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B584" s="3" t="s">
+      <c r="B584" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="3" t="s">
+      <c r="A585" s="2" t="s">
         <v>590</v>
       </c>
       <c r="B585" s="3" t="s">
@@ -7005,15 +7000,15 @@
       </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="3" t="s">
+      <c r="A586" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B586" s="3" t="s">
+      <c r="B586" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="3" t="s">
+      <c r="A587" s="2" t="s">
         <v>592</v>
       </c>
       <c r="B587" s="3" t="s">
@@ -7021,7 +7016,7 @@
       </c>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="3" t="s">
+      <c r="A588" s="2" t="s">
         <v>593</v>
       </c>
       <c r="B588" s="3" t="s">
@@ -7029,7 +7024,7 @@
       </c>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="3" t="s">
+      <c r="A589" s="2" t="s">
         <v>594</v>
       </c>
       <c r="B589" s="3" t="s">
@@ -7037,7 +7032,7 @@
       </c>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="3" t="s">
+      <c r="A590" s="2" t="s">
         <v>595</v>
       </c>
       <c r="B590" s="3" t="s">
@@ -7045,7 +7040,7 @@
       </c>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="3" t="s">
+      <c r="A591" s="2" t="s">
         <v>596</v>
       </c>
       <c r="B591" s="3" t="s">
@@ -7053,7 +7048,7 @@
       </c>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="3" t="s">
+      <c r="A592" s="2" t="s">
         <v>597</v>
       </c>
       <c r="B592" s="3" t="s">
@@ -7061,7 +7056,7 @@
       </c>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="3" t="s">
+      <c r="A593" s="2" t="s">
         <v>598</v>
       </c>
       <c r="B593" s="3" t="s">
@@ -7069,7 +7064,7 @@
       </c>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="3" t="s">
+      <c r="A594" s="2" t="s">
         <v>599</v>
       </c>
       <c r="B594" s="3" t="s">
@@ -7077,23 +7072,23 @@
       </c>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="3" t="s">
+      <c r="A595" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B595" s="3" t="s">
+      <c r="B595" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="4" t="s">
+      <c r="A596" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B596" s="4" t="s">
+      <c r="B596" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="3" t="s">
+      <c r="A597" s="2" t="s">
         <v>602</v>
       </c>
       <c r="B597" s="3" t="s">
@@ -7101,7 +7096,7 @@
       </c>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="3" t="s">
+      <c r="A598" s="2" t="s">
         <v>603</v>
       </c>
       <c r="B598" s="3" t="s">
@@ -7109,7 +7104,7 @@
       </c>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="3" t="s">
+      <c r="A599" s="2" t="s">
         <v>604</v>
       </c>
       <c r="B599" s="3" t="s">
@@ -7117,23 +7112,23 @@
       </c>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="3" t="s">
+      <c r="A600" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B600" s="3" t="s">
+      <c r="B600" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="5" t="s">
+      <c r="A601" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B601" s="3" t="s">
+      <c r="B601" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="3" t="s">
+      <c r="A602" s="2" t="s">
         <v>607</v>
       </c>
       <c r="B602" s="3" t="s">
@@ -7141,7 +7136,7 @@
       </c>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="3" t="s">
+      <c r="A603" s="2" t="s">
         <v>608</v>
       </c>
       <c r="B603" s="3" t="s">
@@ -7149,31 +7144,31 @@
       </c>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="3" t="s">
+      <c r="A604" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B604" s="3" t="s">
+      <c r="B604" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="3" t="s">
+      <c r="A605" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B605" s="3" t="s">
+      <c r="B605" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="3" t="s">
+      <c r="A606" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B606" s="3" t="s">
+      <c r="B606" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="3" t="s">
+      <c r="A607" s="2" t="s">
         <v>612</v>
       </c>
       <c r="B607" s="3" t="s">
@@ -7181,39 +7176,39 @@
       </c>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="3" t="s">
+      <c r="A608" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B608" s="3" t="s">
+      <c r="B608" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="3" t="s">
+      <c r="A609" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B609" s="3" t="s">
+      <c r="B609" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="3" t="s">
+      <c r="A610" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B610" s="3" t="s">
+      <c r="B610" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="3" t="s">
+      <c r="A611" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B611" s="3" t="s">
+      <c r="B611" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="3" t="s">
+      <c r="A612" s="2" t="s">
         <v>617</v>
       </c>
       <c r="B612" s="3" t="s">
@@ -7221,31 +7216,31 @@
       </c>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="3" t="s">
+      <c r="A613" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B613" s="3" t="s">
+      <c r="B613" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="3" t="s">
+      <c r="A614" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="B614" s="3" t="s">
+      <c r="B614" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="3" t="s">
+      <c r="A615" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B615" s="3" t="s">
+      <c r="B615" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="3" t="s">
+      <c r="A616" s="2" t="s">
         <v>621</v>
       </c>
       <c r="B616" s="3" t="s">
@@ -7253,55 +7248,55 @@
       </c>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="3" t="s">
+      <c r="A617" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="B617" s="3" t="s">
+      <c r="B617" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="3" t="s">
+      <c r="A618" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B618" s="3" t="s">
+      <c r="B618" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="3" t="s">
+      <c r="A619" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B619" s="3" t="s">
+      <c r="B619" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="3" t="s">
+      <c r="A620" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="B620" s="3" t="s">
+      <c r="B620" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="3" t="s">
+      <c r="A621" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B621" s="3" t="s">
+      <c r="B621" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="3" t="s">
+      <c r="A622" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B622" s="3" t="s">
+      <c r="B622" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="3" t="s">
+      <c r="A623" s="2" t="s">
         <v>628</v>
       </c>
       <c r="B623" s="3" t="s">
@@ -7309,31 +7304,31 @@
       </c>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="3" t="s">
+      <c r="A624" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B624" s="3" t="s">
+      <c r="B624" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="3" t="s">
+      <c r="A625" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B625" s="3" t="s">
+      <c r="B625" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="4" t="s">
+      <c r="A626" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B626" s="4" t="s">
+      <c r="B626" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="3" t="s">
+      <c r="A627" s="2" t="s">
         <v>632</v>
       </c>
       <c r="B627" s="3" t="s">
@@ -7341,15 +7336,15 @@
       </c>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="3" t="s">
+      <c r="A628" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B628" s="3" t="s">
+      <c r="B628" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="3" t="s">
+      <c r="A629" s="2" t="s">
         <v>634</v>
       </c>
       <c r="B629" s="3" t="s">
@@ -7357,7 +7352,7 @@
       </c>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="3" t="s">
+      <c r="A630" s="2" t="s">
         <v>635</v>
       </c>
       <c r="B630" s="3" t="s">
@@ -7365,31 +7360,31 @@
       </c>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="3" t="s">
+      <c r="A631" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B631" s="3" t="s">
+      <c r="B631" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="3" t="s">
+      <c r="A632" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B632" s="3" t="s">
+      <c r="B632" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="3" t="s">
+      <c r="A633" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B633" s="3" t="s">
+      <c r="B633" s="2" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="3" t="s">
+      <c r="A634" s="2" t="s">
         <v>640</v>
       </c>
       <c r="B634" s="3" t="s">
@@ -7397,47 +7392,47 @@
       </c>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="3" t="s">
+      <c r="A635" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B635" s="3" t="s">
+      <c r="B635" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="3" t="s">
+      <c r="A636" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B636" s="3" t="s">
+      <c r="B636" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="3" t="s">
+      <c r="A637" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="B637" s="3" t="s">
+      <c r="B637" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="3" t="s">
+      <c r="A638" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B638" s="3" t="s">
+      <c r="B638" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="3" t="s">
+      <c r="A639" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B639" s="3" t="s">
+      <c r="B639" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="3" t="s">
+      <c r="A640" s="2" t="s">
         <v>646</v>
       </c>
       <c r="B640" s="3" t="s">
@@ -7445,55 +7440,55 @@
       </c>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="3" t="s">
+      <c r="A641" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B641" s="3" t="s">
+      <c r="B641" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="3" t="s">
+      <c r="A642" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B642" s="3" t="s">
+      <c r="B642" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="4" t="s">
+      <c r="A643" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="B643" s="4" t="s">
+      <c r="B643" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="3" t="s">
+      <c r="A644" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="B644" s="3" t="s">
+      <c r="B644" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="3" t="s">
+      <c r="A645" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B645" s="3" t="s">
+      <c r="B645" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="3" t="s">
+      <c r="A646" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B646" s="3" t="s">
+      <c r="B646" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="3" t="s">
+      <c r="A647" s="2" t="s">
         <v>652</v>
       </c>
       <c r="B647" s="3" t="s">
@@ -7501,7 +7496,7 @@
       </c>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="3" t="s">
+      <c r="A648" s="2" t="s">
         <v>653</v>
       </c>
       <c r="B648" s="3" t="s">
@@ -7509,55 +7504,55 @@
       </c>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="3" t="s">
+      <c r="A649" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B649" s="3" t="s">
+      <c r="B649" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="5" t="s">
+      <c r="A650" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="B650" s="3" t="s">
+      <c r="B650" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="4" t="s">
+      <c r="A651" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B651" s="3" t="s">
+      <c r="B651" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="3" t="s">
+      <c r="A652" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B652" s="3" t="s">
+      <c r="B652" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="3" t="s">
+      <c r="A653" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="B653" s="3" t="s">
+      <c r="B653" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="3" t="s">
+      <c r="A654" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B654" s="3" t="s">
+      <c r="B654" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="3" t="s">
+      <c r="A655" s="2" t="s">
         <v>659</v>
       </c>
       <c r="B655" s="3" t="s">
@@ -7565,48 +7560,125 @@
       </c>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="3" t="s">
+      <c r="A656" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B656" s="3" t="s">
+      <c r="B656" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="3" t="s">
+      <c r="A657" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B657" s="3" t="s">
+      <c r="B657" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="3" t="s">
+      <c r="A658" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B658" s="3" t="s">
+      <c r="B658" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="3" t="s">
+      <c r="A659" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B659" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
+      <c r="B659" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="A660" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="A661" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B661" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="A662" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="A663" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="A664" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B664" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="A665" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B665" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="A666" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B666" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="A667" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="A668" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="A669" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="A670" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="671" ht="15.75" customHeight="1"/>
     <row r="672" ht="15.75" customHeight="1"/>
     <row r="673" ht="15.75" customHeight="1"/>
@@ -7879,6 +7951,8 @@
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
     <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
